--- a/REGULAR/CHO/CANALOG, EUGENE V..xlsx
+++ b/REGULAR/CHO/CANALOG, EUGENE V..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="174">
   <si>
     <t>PERIOD</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K424" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K425" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1596,12 +1599,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K424"/>
+  <dimension ref="A2:K425"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A356" activePane="bottomLeft"/>
-      <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="K377" sqref="K377"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A372" activePane="bottomLeft"/>
+      <selection activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1767,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>232.23099999999999</v>
+        <v>235.98099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1774,7 +1777,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.5</v>
+        <v>306.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5706,7 +5709,7 @@
       <c r="H188" s="38"/>
       <c r="I188" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.5</v>
+        <v>306.25</v>
       </c>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
@@ -9768,13 +9771,15 @@
       <c r="B377" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C377" s="13"/>
+      <c r="C377" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D377" s="38"/>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G377" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H377" s="38"/>
       <c r="I377" s="9"/>
@@ -9788,13 +9793,15 @@
         <v>45200</v>
       </c>
       <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
+      <c r="C378" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D378" s="38"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G378" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H378" s="38"/>
       <c r="I378" s="9"/>
@@ -9806,13 +9813,15 @@
         <v>45231</v>
       </c>
       <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="38"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H379" s="38"/>
       <c r="I379" s="9"/>
@@ -9820,8 +9829,12 @@
       <c r="K379" s="20"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="39"/>
-      <c r="B380" s="20"/>
+      <c r="A380" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C380" s="13"/>
       <c r="D380" s="38"/>
       <c r="E380" s="9"/>
@@ -9830,13 +9843,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H380" s="38"/>
+      <c r="H380" s="38">
+        <v>1</v>
+      </c>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
+      <c r="K380" s="48">
+        <v>45274</v>
+      </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="39"/>
+      <c r="A381" s="47" t="s">
+        <v>173</v>
+      </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
       <c r="D381" s="38"/>
@@ -9852,7 +9871,9 @@
       <c r="K381" s="20"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="39"/>
+      <c r="A382" s="39">
+        <v>45292</v>
+      </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
       <c r="D382" s="38"/>
@@ -9868,7 +9889,9 @@
       <c r="K382" s="20"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="39"/>
+      <c r="A383" s="39">
+        <v>45323</v>
+      </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
       <c r="D383" s="38"/>
@@ -9884,7 +9907,9 @@
       <c r="K383" s="20"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="39"/>
+      <c r="A384" s="39">
+        <v>45352</v>
+      </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
       <c r="D384" s="38"/>
@@ -9900,7 +9925,9 @@
       <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="39"/>
+      <c r="A385" s="39">
+        <v>45383</v>
+      </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
       <c r="D385" s="38"/>
@@ -9916,7 +9943,9 @@
       <c r="K385" s="20"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="39"/>
+      <c r="A386" s="39">
+        <v>45413</v>
+      </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
       <c r="D386" s="38"/>
@@ -9932,7 +9961,9 @@
       <c r="K386" s="20"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="39"/>
+      <c r="A387" s="39">
+        <v>45444</v>
+      </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
       <c r="D387" s="38"/>
@@ -9948,7 +9979,9 @@
       <c r="K387" s="20"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="39"/>
+      <c r="A388" s="39">
+        <v>45474</v>
+      </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
       <c r="D388" s="38"/>
@@ -9964,7 +9997,9 @@
       <c r="K388" s="20"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="39"/>
+      <c r="A389" s="39">
+        <v>45505</v>
+      </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
       <c r="D389" s="38"/>
@@ -9980,7 +10015,9 @@
       <c r="K389" s="20"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="39"/>
+      <c r="A390" s="39">
+        <v>45536</v>
+      </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
       <c r="D390" s="38"/>
@@ -9996,7 +10033,9 @@
       <c r="K390" s="20"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="39"/>
+      <c r="A391" s="39">
+        <v>45566</v>
+      </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
       <c r="D391" s="38"/>
@@ -10012,7 +10051,9 @@
       <c r="K391" s="20"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="39"/>
+      <c r="A392" s="39">
+        <v>45597</v>
+      </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
       <c r="D392" s="38"/>
@@ -10028,7 +10069,9 @@
       <c r="K392" s="20"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="39"/>
+      <c r="A393" s="39">
+        <v>45627</v>
+      </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
       <c r="D393" s="38"/>
@@ -10044,7 +10087,9 @@
       <c r="K393" s="20"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="39"/>
+      <c r="A394" s="39">
+        <v>45658</v>
+      </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
       <c r="D394" s="38"/>
@@ -10060,7 +10105,9 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="39"/>
+      <c r="A395" s="39">
+        <v>45689</v>
+      </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
       <c r="D395" s="38"/>
@@ -10076,7 +10123,9 @@
       <c r="K395" s="20"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="39"/>
+      <c r="A396" s="39">
+        <v>45717</v>
+      </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
       <c r="D396" s="38"/>
@@ -10092,7 +10141,9 @@
       <c r="K396" s="20"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="39"/>
+      <c r="A397" s="39">
+        <v>45748</v>
+      </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
       <c r="D397" s="38"/>
@@ -10108,7 +10159,9 @@
       <c r="K397" s="20"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="39"/>
+      <c r="A398" s="39">
+        <v>45778</v>
+      </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
       <c r="D398" s="38"/>
@@ -10124,7 +10177,9 @@
       <c r="K398" s="20"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="39"/>
+      <c r="A399" s="39">
+        <v>45809</v>
+      </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
       <c r="D399" s="38"/>
@@ -10524,20 +10579,36 @@
       <c r="K423" s="20"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40"/>
-      <c r="B424" s="15"/>
-      <c r="C424" s="41"/>
-      <c r="D424" s="42"/>
+      <c r="A424" s="39"/>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="38"/>
       <c r="E424" s="9"/>
-      <c r="F424" s="15"/>
-      <c r="G424" s="41" t="str">
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H424" s="42"/>
+      <c r="H424" s="38"/>
       <c r="I424" s="9"/>
-      <c r="J424" s="12"/>
-      <c r="K424" s="15"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40"/>
+      <c r="B425" s="15"/>
+      <c r="C425" s="41"/>
+      <c r="D425" s="42"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="15"/>
+      <c r="G425" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="42"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="12"/>
+      <c r="K425" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CHO/CANALOG, EUGENE V..xlsx
+++ b/REGULAR/CHO/CANALOG, EUGENE V..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="177">
   <si>
     <t>PERIOD</t>
   </si>
@@ -555,6 +555,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1279,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K425" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K427" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1599,12 +1608,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K425"/>
+  <dimension ref="A2:K427"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A372" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A363" activePane="bottomLeft"/>
       <selection activeCell="L8" sqref="L8"/>
-      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
+      <selection pane="bottomLeft" activeCell="K372" sqref="K372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1776,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>235.98099999999999</v>
+        <v>234.227</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1777,7 +1786,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>306.25</v>
+        <v>307.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5709,7 +5718,7 @@
       <c r="H188" s="38"/>
       <c r="I188" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>306.25</v>
+        <v>307.5</v>
       </c>
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
@@ -9668,11 +9677,15 @@
       <c r="A372" s="39">
         <v>45017</v>
       </c>
-      <c r="B372" s="20"/>
+      <c r="B372" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="C372" s="13">
         <v>1.25</v>
       </c>
-      <c r="D372" s="38"/>
+      <c r="D372" s="38">
+        <v>2</v>
+      </c>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
       <c r="G372" s="13">
@@ -9682,7 +9695,9 @@
       <c r="H372" s="38"/>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
-      <c r="K372" s="20"/>
+      <c r="K372" s="20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
@@ -9789,81 +9804,81 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D378" s="38"/>
+      <c r="A378" s="39"/>
+      <c r="B378" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C378" s="13"/>
+      <c r="D378" s="38">
+        <v>1</v>
+      </c>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H378" s="38"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
+      <c r="K378" s="48">
+        <v>45184</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="39">
-        <v>45231</v>
-      </c>
-      <c r="B379" s="20"/>
-      <c r="C379" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D379" s="38"/>
+      <c r="A379" s="39"/>
+      <c r="B379" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C379" s="13"/>
+      <c r="D379" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H379" s="38"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
+      <c r="K379" s="48"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B380" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C380" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D380" s="38"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H380" s="38">
-        <v>1</v>
-      </c>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H380" s="38"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="48">
-        <v>45274</v>
-      </c>
+      <c r="K380" s="20"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="47" t="s">
-        <v>173</v>
+      <c r="A381" s="39">
+        <v>45231</v>
       </c>
       <c r="B381" s="20"/>
-      <c r="C381" s="13"/>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D381" s="38"/>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H381" s="38"/>
       <c r="I381" s="9"/>
@@ -9872,25 +9887,33 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
-        <v>45292</v>
-      </c>
-      <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="38"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H382" s="38"/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H382" s="38">
+        <v>1</v>
+      </c>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
+      <c r="K382" s="48">
+        <v>45274</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="39">
-        <v>45323</v>
+      <c r="A383" s="47" t="s">
+        <v>173</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9908,7 +9931,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9926,7 +9949,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9944,7 +9967,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9962,7 +9985,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -9980,7 +10003,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -9998,7 +10021,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10016,7 +10039,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10034,7 +10057,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10052,7 +10075,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10070,7 +10093,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10088,7 +10111,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10106,7 +10129,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10124,7 +10147,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10142,7 +10165,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10160,7 +10183,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10178,7 +10201,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10195,7 +10218,9 @@
       <c r="K399" s="20"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="39"/>
+      <c r="A400" s="39">
+        <v>45778</v>
+      </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
       <c r="D400" s="38"/>
@@ -10211,7 +10236,9 @@
       <c r="K400" s="20"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="39"/>
+      <c r="A401" s="39">
+        <v>45809</v>
+      </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
       <c r="D401" s="38"/>
@@ -10595,20 +10622,52 @@
       <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40"/>
-      <c r="B425" s="15"/>
-      <c r="C425" s="41"/>
-      <c r="D425" s="42"/>
+      <c r="A425" s="39"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="38"/>
       <c r="E425" s="9"/>
-      <c r="F425" s="15"/>
-      <c r="G425" s="41" t="str">
+      <c r="F425" s="20"/>
+      <c r="G425" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H425" s="42"/>
+      <c r="H425" s="38"/>
       <c r="I425" s="9"/>
-      <c r="J425" s="12"/>
-      <c r="K425" s="15"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="39"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="38"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="38"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="40"/>
+      <c r="B427" s="15"/>
+      <c r="C427" s="41"/>
+      <c r="D427" s="42"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="15"/>
+      <c r="G427" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H427" s="42"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="12"/>
+      <c r="K427" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10720,15 +10779,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.19800000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="34">
